--- a/04_ROS_Enzyme/data/EPS_SelfCatalysis.xlsx
+++ b/04_ROS_Enzyme/data/EPS_SelfCatalysis.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangliao/Documents/GitHub/OSProtein/04_ROS_Enzyme/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangliao/Documents/GitHub/DGI_CoExp/04_ROS_Enzyme/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D588F39-2E46-BB4D-8D0B-BD434F50775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB7ACEC-C6FA-0E44-94BD-6D2E55ED67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="500" windowWidth="14360" windowHeight="16000" activeTab="2" xr2:uid="{5C520BB8-A3FB-1940-A5B6-79D1531FA3B5}"/>
+    <workbookView xWindow="15500" yWindow="500" windowWidth="14360" windowHeight="15940" activeTab="2" xr2:uid="{5C520BB8-A3FB-1940-A5B6-79D1531FA3B5}"/>
   </bookViews>
   <sheets>
     <sheet name="EPS" sheetId="5" r:id="rId1"/>
     <sheet name="NO3" sheetId="3" r:id="rId2"/>
     <sheet name="Removal" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="28">
   <si>
     <t>Dark</t>
   </si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>TB-EPS</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -174,69 +177,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="EnzymeActivity"/>
-      <sheetName val="ENZAc_IC_NO3-_Raw"/>
-      <sheetName val="EPS_Pro_Conc."/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>c (mg L-1)</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>0.13089999999999999</v>
-          </cell>
-          <cell r="B5">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>0.17979999999999999</v>
-          </cell>
-          <cell r="B6">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>0.22509999999999999</v>
-          </cell>
-          <cell r="B7">
-            <v>300</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>0.26950000000000002</v>
-          </cell>
-          <cell r="B8">
-            <v>400</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>0.30859999999999999</v>
-          </cell>
-          <cell r="B9">
-            <v>500</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161C8FDD-681A-5546-80BE-D7B8F0EEFD22}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -557,8 +497,14 @@
       <c r="D1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -571,8 +517,16 @@
       <c r="D2">
         <v>320.18545918367346</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>1303.9033163265306</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(E2:E4)</f>
+        <v>956.81859861021405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -585,8 +539,12 @@
       <c r="D3">
         <v>148.28549450549451</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">SUM(B3:D3)</f>
+        <v>765.31362637362633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -599,8 +557,12 @@
       <c r="D4">
         <v>144.79087185488589</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>801.2388531304855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -613,8 +575,16 @@
       <c r="D5">
         <v>520.89141886151219</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1205.325063721325</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(E5:E7)</f>
+        <v>970.78567222418894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -627,8 +597,12 @@
       <c r="D6">
         <v>808.62175986129159</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1065.5545730385779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -641,8 +615,12 @@
       <c r="D7">
         <v>421.81973799126627</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>641.47737991266354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -655,8 +633,20 @@
       <c r="D8">
         <v>546.03948581130248</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1867.1718651467377</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(E8:E10)</f>
+        <v>1758.4312003573657</v>
+      </c>
+      <c r="G8">
+        <f>F8/F2-1</f>
+        <v>0.83778952761944603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -669,8 +659,12 @@
       <c r="D9">
         <v>339.22687904430057</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1795.9336983573914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -682,6 +676,10 @@
       </c>
       <c r="D10">
         <v>421.15175481957488</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1612.188037567968</v>
       </c>
     </row>
   </sheetData>
@@ -1174,15 +1172,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058C7758-E18F-8542-BBB3-704CF30D1F63}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1253,7 +1251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1325,7 +1323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1349,7 +1347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1397,7 +1395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +1419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1445,8 +1443,10 @@
       <c r="G11">
         <v>0.58508735171542747</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0.59060892786627939</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0.61187808719116032</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1520,8 +1520,10 @@
       <c r="G14">
         <v>0.88741056037757382</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>0.61867993298546997</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>0.63645993734949957</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1595,8 +1597,10 @@
       <c r="G17">
         <v>0.55566040258580329</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>0.6042327747399302</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>0.57322165326718644</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1670,8 +1674,9 @@
       <c r="G20">
         <v>0.76743721504562146</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1696,7 +1701,7 @@
         <v>0.69266990466451073</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>0.69700401279301005</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1745,8 +1750,9 @@
       <c r="G23">
         <v>0.96686120924362684</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>0.72693472927817249</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1796,7 +1802,7 @@
         <v>0.76154877923937936</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1820,8 +1826,9 @@
       <c r="G26">
         <v>0.64688562269289662</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1846,7 +1853,7 @@
         <v>0.71258046220861471</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
